--- a/__repository/template_import/tbl_rdm.xlsx
+++ b/__repository/template_import/tbl_rdm.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>resource</t>
   </si>
@@ -67,6 +67,12 @@
   </si>
   <si>
     <t>coefficient</t>
+  </si>
+  <si>
+    <t>periode_bulan</t>
+  </si>
+  <si>
+    <t>periode_tahun</t>
   </si>
 </sst>
 </file>
@@ -422,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q1"/>
+  <dimension ref="A1:S1"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="R1" sqref="R1:S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -441,9 +447,11 @@
     <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -494,6 +502,12 @@
       </c>
       <c r="Q1" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
